--- a/datos_resultados/HBOS_tabla_anomalos_establecimientos_22.xlsx
+++ b/datos_resultados/HBOS_tabla_anomalos_establecimientos_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,22 +507,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>719774412</v>
+        <v>501468214</v>
       </c>
       <c r="B2" t="n">
-        <v>28571429</v>
+        <v>50000000</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>5902000</v>
+        <v>9660000</v>
       </c>
       <c r="E2" t="n">
-        <v>21762000</v>
+        <v>28370000</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>5.180266626568832</v>
+        <v>4.682733935139236</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -553,45 +553,1333 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>501468214</v>
+        <v>501480811</v>
       </c>
       <c r="B3" t="n">
-        <v>50000000</v>
+        <v>205471143</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9660000</v>
+        <v>13793010</v>
       </c>
       <c r="E3" t="n">
-        <v>28370000</v>
+        <v>146021700</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.35818582851735</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>503178411</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4242900</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39317000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.109658558291906</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>503214711</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6160000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32406000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.289942641684626</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.300769994731882</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>504872211</v>
+      </c>
+      <c r="B6" t="n">
+        <v>400000000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6880000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>205660000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.548209047436108</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>505552612</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8820000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39477500</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.370362604739788</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>505553411</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10030000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>72430000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.678064312216439</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>506341011</v>
+      </c>
+      <c r="B9" t="n">
+        <v>283000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6170750</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28100000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.188959938472783</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>701348611</v>
+      </c>
+      <c r="B10" t="n">
+        <v>114285714</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5524000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>84217500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.134551088736101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>701614611</v>
+      </c>
+      <c r="B11" t="n">
+        <v>114285714</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5600000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>87181429</v>
+      </c>
+      <c r="F11" t="n">
+        <v>76</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.108350948308535</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>703615312</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14057526</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19787000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.319841675304138</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>703616811</v>
+      </c>
+      <c r="B13" t="n">
+        <v>130000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22726568</v>
+      </c>
+      <c r="E13" t="n">
+        <v>95150000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.674444220749313</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>703889411</v>
+      </c>
+      <c r="B14" t="n">
+        <v>142857143</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17166996</v>
+      </c>
+      <c r="E14" t="n">
+        <v>114961000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>88</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.769080064494364</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>707038311</v>
+      </c>
+      <c r="B15" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7050000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>106385000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.521622978924405</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>707748911</v>
+      </c>
+      <c r="B16" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6580100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>44500000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>88</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.580087862807842</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>708377711</v>
+      </c>
+      <c r="B17" t="n">
+        <v>172857143</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10245000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>143790000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>41</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.342948953995401</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>711357512</v>
+      </c>
+      <c r="B18" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>85190000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>47</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.196969511104998</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>711475112</v>
+      </c>
+      <c r="B19" t="n">
+        <v>250000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5698688</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123746000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.500486971261973</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>712845311</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1061428571</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8090000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>770910000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>41</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.16882863671555</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>715746311</v>
+      </c>
+      <c r="B21" t="n">
+        <v>85714286</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18500500</v>
+      </c>
+      <c r="E21" t="n">
+        <v>67120000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.29315913000381</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>718182411</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57142857</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4157100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41887000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.123189352310559</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>719305911</v>
+      </c>
+      <c r="B23" t="n">
+        <v>214285714</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4190000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>151560000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.240667925403286</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>719324811</v>
+      </c>
+      <c r="B24" t="n">
+        <v>54285714</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4240000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>44033000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>52</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.353776837195106</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>719645011</v>
+      </c>
+      <c r="B25" t="n">
+        <v>94714286</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5840000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>69130000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>41</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.166153320800541</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>719774412</v>
+      </c>
+      <c r="B26" t="n">
+        <v>28571429</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5902000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21762000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.449276485363723</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>723811511</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30656000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>18</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.325026983485067</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>723812511</v>
+      </c>
+      <c r="B28" t="n">
+        <v>140000000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20572025</v>
+      </c>
+      <c r="E28" t="n">
+        <v>103046000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.393044434617338</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>724104311</v>
+      </c>
+      <c r="B29" t="n">
+        <v>257142857</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8205000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>186250000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>41</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.765893239944393</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>726487311</v>
+      </c>
+      <c r="B30" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6300000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>51662000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>41</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.877397622515511</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>727465612</v>
+      </c>
+      <c r="B31" t="n">
+        <v>57142857</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10900000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>43160000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>68</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.217649632760604</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Outlier</t>
         </is>
